--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P36_trail15 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P36_trail15 Features.xlsx
@@ -5070,7 +5070,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5082,28 +5082,26 @@
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5124,115 +5122,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -5249,72 +5237,66 @@
         <v>2.98209451376262e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.1917092016793091</v>
+        <v>8.914548420536605e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.542710850722051</v>
+        <v>1.510548819434594e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>8.914548420536605e-07</v>
+        <v>0.004630705170139054</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.510548819434594e-06</v>
+        <v>0.1366553558370385</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.004630705170139054</v>
+        <v>0.018677377727712</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1366553558370385</v>
+        <v>1.918231789473742</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.018677377727712</v>
+        <v>2.201624696725986</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.925967467834767</v>
+        <v>4.514683810524015</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.201624696725986</v>
+        <v>4.114249119543048e-17</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.514683810524015</v>
+        <v>1681356050.060376</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>4.114249119543048e-17</v>
+        <v>7.151112011255956e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>1681356050.060376</v>
+        <v>116.3081014987183</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>7.151112011255956e-08</v>
+        <v>0.0001687000191426729</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>116.3081014987183</v>
+        <v>9.060616034195798</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001687000191426729</v>
+        <v>1.34191614124267</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.060616034195798</v>
+        <v>0.01384938807596975</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.34191614124267</v>
+        <v>2.939130090232696</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01384938807596975</v>
+        <v>0.9595118620023234</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.939130090232696</v>
+        <v>1.352356470328358</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9595118620023234</v>
+        <v>2</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.352356470328358</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.4975570881728146</v>
       </c>
     </row>
@@ -5329,72 +5311,66 @@
         <v>2.979746735849478e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.1890967222851938</v>
+        <v>8.100781041696171e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.548011669433837</v>
+        <v>1.510663281104697e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>8.100781041696171e-07</v>
+        <v>-0.003472100719844455</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.510663281104697e-06</v>
+        <v>0.1216481835788006</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.003472100719844455</v>
+        <v>0.01479854793006133</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1216481835788006</v>
+        <v>1.918866652064469</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.01479854793006133</v>
+        <v>2.345826349650617</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.923917320953633</v>
+        <v>4.520316351880887</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.345826349650617</v>
+        <v>4.104002385141487e-17</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.520316351880887</v>
+        <v>1729332758.595141</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>4.104002385141487e-17</v>
+        <v>6.968727388810783e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>1729332758.595141</v>
+        <v>122.733958389405</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>6.968727388810783e-08</v>
+        <v>0.0001627116655784571</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>122.733958389405</v>
+        <v>10.16311678484382</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001627116655784571</v>
+        <v>1.14068974830657</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>10.16311678484382</v>
+        <v>0.01680631591595806</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.14068974830657</v>
+        <v>2.739594244362733</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01680631591595806</v>
+        <v>0.9599968500305361</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.739594244362733</v>
+        <v>1.353746202652877</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9599968500305361</v>
+        <v>2</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.353746202652877</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.3980756131199284</v>
       </c>
     </row>
@@ -5409,72 +5385,66 @@
         <v>3.005230584327684e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.1968313094693355</v>
+        <v>8.100899746815169e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.545936267493578</v>
+        <v>1.508647158919715e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>8.100899746815169e-07</v>
+        <v>-0.009664592496985496</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.508647158919715e-06</v>
+        <v>0.1100012232178713</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.009664592496985496</v>
+        <v>0.01218633998083698</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1100012232178713</v>
+        <v>1.911416621301968</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.01218633998083698</v>
+        <v>2.303147121360634</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.911423638170076</v>
+        <v>4.370399644396207</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.303147121360634</v>
+        <v>4.396076316782144e-17</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.370399644396207</v>
+        <v>1590498775.137885</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>4.396076316782144e-17</v>
+        <v>7.566669311925183e-08</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>1590498775.137885</v>
+        <v>111.2069426845398</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>7.566669311925183e-08</v>
+        <v>0.0001652367739052838</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>111.2069426845398</v>
+        <v>10.41003550773689</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001652367739052838</v>
+        <v>1.14707004956976</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>10.41003550773689</v>
+        <v>0.01790651739322218</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.14707004956976</v>
+        <v>2.622824511944279</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01790651739322218</v>
+        <v>0.959588433061213</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.622824511944279</v>
+        <v>1.403479035816279</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.959588433061213</v>
+        <v>2</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.403479035816279</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.3475673015845653</v>
       </c>
     </row>
@@ -5489,72 +5459,66 @@
         <v>3.045005292916396e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.1971116749704729</v>
+        <v>8.100899746815169e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.562361715242035</v>
+        <v>1.504968152586179e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>8.100899746815169e-07</v>
+        <v>-0.01440818726267929</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.504968152586179e-06</v>
+        <v>0.1006450506098381</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.01440818726267929</v>
+        <v>0.01033191264300656</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1006450506098381</v>
+        <v>1.896344526249698</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.01033191264300656</v>
+        <v>1.942401835101235</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.88633844582074</v>
+        <v>5.245893333343377</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.942401835101235</v>
+        <v>6.67750836575144e-17</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>5.245893333343377</v>
+        <v>1033962950.106223</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>6.67750836575144e-17</v>
+        <v>1.16250862743288e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>1033962950.106223</v>
+        <v>71.38786518241893</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.16250862743288e-07</v>
+        <v>0.0001740406426772368</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>71.38786518241893</v>
+        <v>9.149846184071157</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001740406426772368</v>
+        <v>1.306006967110428</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.149846184071157</v>
+        <v>0.01457062781557973</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.306006967110428</v>
+        <v>2.781221376683755</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01457062781557973</v>
+        <v>0.9584237557552501</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.781221376683755</v>
+        <v>1.450247233765141</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9584237557552501</v>
+        <v>2</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.450247233765141</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.276542821604215</v>
       </c>
     </row>
@@ -5569,72 +5533,66 @@
         <v>3.090476582282509e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.1840716340740502</v>
+        <v>8.100899746815169e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.595596949208556</v>
+        <v>1.499953227331672e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>8.100899746815169e-07</v>
+        <v>-0.01803511578949372</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.499953227331672e-06</v>
+        <v>0.09292208111078144</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.01803511578949372</v>
+        <v>0.008956378338827956</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.09292208111078144</v>
+        <v>1.895961789988191</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.008956378338827956</v>
+        <v>1.841419758518727</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.879165809294493</v>
+        <v>4.714716572945175</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.841419758518727</v>
+        <v>1.138404433050584e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.714716572945175</v>
+        <v>584519572.4383992</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.138404433050584e-16</v>
+        <v>2.057783524360195e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>584519572.4383992</v>
+        <v>38.89508224435075</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>2.057783524360195e-07</v>
+        <v>0.0002169615368297649</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>38.89508224435075</v>
+        <v>9.270981055966152</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0002169615368297649</v>
+        <v>1.540192618524158</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.270981055966152</v>
+        <v>0.01864808052220149</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.540192618524158</v>
+        <v>2.62867365709694</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01864808052220149</v>
+        <v>0.9568002711719648</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.62867365709694</v>
+        <v>1.488030937969008</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9568002711719648</v>
+        <v>2</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.488030937969008</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2117992271687676</v>
       </c>
     </row>
@@ -5649,72 +5607,66 @@
         <v>3.135575612185241e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.1577399563165157</v>
+        <v>8.100899746815169e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.636799088358863</v>
+        <v>1.493923014835288e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>8.100899746815169e-07</v>
+        <v>-0.02047949389359789</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.493923014835288e-06</v>
+        <v>0.08735055164917743</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.02047949389359789</v>
+        <v>0.008047315479758477</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.08735055164917743</v>
+        <v>1.888890734141919</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.008047315479758477</v>
+        <v>1.739518730918309</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.869979987663773</v>
+        <v>4.415078749255182</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.739518730918309</v>
+        <v>1.861504417941784e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.415078749255182</v>
+        <v>359928256.3395048</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.861504417941784e-16</v>
+        <v>3.335634770766212e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>359928256.3395048</v>
+        <v>24.11548253252037</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>3.335634770766212e-07</v>
+        <v>0.000225750665844253</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>24.11548253252037</v>
+        <v>10.59471971444558</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.000225750665844253</v>
+        <v>1.323349367276428</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>10.59471971444558</v>
+        <v>0.02534008011533751</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.323349367276428</v>
+        <v>2.471520123779764</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.02534008011533751</v>
+        <v>0.9544356765769679</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.471520123779764</v>
+        <v>1.495745936268254</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9544356765769679</v>
+        <v>2</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.495745936268254</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1854401350863961</v>
       </c>
     </row>
@@ -5729,72 +5681,66 @@
         <v>3.176237962521465e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.1205057365666512</v>
+        <v>8.100899746815169e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.677832529138525</v>
+        <v>1.487183159275479e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>8.100899746815169e-07</v>
+        <v>-0.02212158216259749</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1.487183159275479e-06</v>
+        <v>0.08324775584243339</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.02212158216259749</v>
+        <v>0.007417617261996984</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.08324775584243339</v>
+        <v>1.792728243246264</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.007417617261996984</v>
+        <v>1.762283025156621</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.753275912937196</v>
+        <v>4.985713745941622</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.762283025156621</v>
+        <v>2.22233741690248e-16</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.985713745941622</v>
+        <v>312520038.5721904</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>2.22233741690248e-16</v>
+        <v>3.634733784129144e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>312520038.5721904</v>
+        <v>21.70529720547249</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>3.634733784129144e-07</v>
+        <v>0.0002123671879328563</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>21.70529720547249</v>
+        <v>12.53506923682867</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0002123671879328563</v>
+        <v>1.033691348780817</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>12.53506923682867</v>
+        <v>0.03336882317479256</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.033691348780817</v>
+        <v>2.272194438399773</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.03336882317479256</v>
+        <v>0.9503741420227296</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.272194438399773</v>
+        <v>1.555184607308377</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9503741420227296</v>
+        <v>3</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.555184607308377</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.1899034170902184</v>
       </c>
     </row>
@@ -5809,72 +5755,66 @@
         <v>3.210275711530407e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.07429948814113443</v>
+        <v>8.100899746815169e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.712886165641857</v>
+        <v>1.479841182701839e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>8.100899746815169e-07</v>
+        <v>-0.02394988333629146</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1.479841182701839e-06</v>
+        <v>0.07895683832545208</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.02394988333629146</v>
+        <v>0.006805416616929533</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.07895683832545208</v>
+        <v>1.671478578417961</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.006805416616929533</v>
+        <v>1.437603838613159</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.604283902790781</v>
+        <v>5.372786621057053</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.437603838613159</v>
+        <v>7.750803054774199e-16</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>5.372786621057053</v>
+        <v>90701257.86379114</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>7.750803054774199e-16</v>
+        <v>1.161904973452504e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>90701257.86379114</v>
+        <v>6.376367238538188</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.161904973452504e-06</v>
+        <v>0.0002171858688708322</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>6.376367238538188</v>
+        <v>10.13136536604779</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0002171858688708322</v>
+        <v>1.382450275790194</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>10.13136536604779</v>
+        <v>0.02229294885637777</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.382450275790194</v>
+        <v>2.560144890729492</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.02229294885637777</v>
+        <v>0.9422279388887532</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.560144890729492</v>
+        <v>1.863968153692935</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9422279388887532</v>
+        <v>3</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.863968153692935</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.1541848547402801</v>
       </c>
     </row>
@@ -5889,72 +5829,66 @@
         <v>3.236553543394282e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.01976965212432203</v>
+        <v>8.100899746815169e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.73696363161276</v>
+        <v>1.471665436593947e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>8.100899746815169e-07</v>
+        <v>-0.02690609846827472</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1.471665436593947e-06</v>
+        <v>0.07231449534577782</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.02690609846827472</v>
+        <v>0.005950109644565878</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.07231449534577782</v>
+        <v>1.646194220586127</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.005950109644565878</v>
+        <v>1.441570230044188</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.574714381637248</v>
+        <v>4.142485686517253</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.441570230044188</v>
+        <v>1.321123577945868e-15</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.142485686517253</v>
+        <v>54660379.07112104</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.321123577945868e-15</v>
+        <v>1.929476939515751e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>54660379.07112104</v>
+        <v>3.947196270980193</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.929476939515751e-06</v>
+        <v>0.0002208803807684364</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>3.947196270980193</v>
+        <v>9.157863150634224</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0002208803807684364</v>
+        <v>1.720937888801168</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>9.157863150634224</v>
+        <v>0.01852445506315106</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.720937888801168</v>
+        <v>2.727974186526201</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01852445506315106</v>
+        <v>0.9434829523950418</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.727974186526201</v>
+        <v>1.814227243002563</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9434829523950418</v>
+        <v>3</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.814227243002563</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.1329394304155737</v>
       </c>
     </row>
@@ -5969,72 +5903,66 @@
         <v>3.252963780173504e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.04196995280533772</v>
+        <v>8.100899746815169e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.745700556300751</v>
+        <v>1.462381617662568e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>8.100899746815169e-07</v>
+        <v>-0.03021518297464024</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1.462381617662568e-06</v>
+        <v>0.06504510209294632</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.03021518297464024</v>
+        <v>0.00514158819843545</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.06504510209294632</v>
+        <v>1.632074938811201</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.00514158819843545</v>
+        <v>1.437907514843698</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.55713610239452</v>
+        <v>3.882518460770366</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.437907514843698</v>
+        <v>1.503967382658525e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3.882518460770366</v>
+        <v>49532337.00931248</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.503967382658525e-15</v>
+        <v>2.124367770980649e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>49532337.00931248</v>
+        <v>3.689912398949541</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>2.124367770980649e-06</v>
+        <v>0.0001664334528533256</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>3.689912398949541</v>
+        <v>9.518130498714998</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001664334528533256</v>
+        <v>1.328431882250472</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>9.518130498714998</v>
+        <v>0.01507800673774107</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.328431882250472</v>
+        <v>2.856631846578912</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01507800673774107</v>
+        <v>0.9432090448738225</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.856631846578912</v>
+        <v>1.865392217419217</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9432090448738225</v>
+        <v>3</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.865392217419217</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.1491316729642648</v>
       </c>
     </row>
@@ -6049,72 +5977,66 @@
         <v>3.258419521858576e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.1076547478933399</v>
+        <v>8.100899746815169e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.738698782677045</v>
+        <v>1.452074178470564e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>8.100899746815169e-07</v>
+        <v>-0.03292702140433944</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1.452074178470564e-06</v>
+        <v>0.06008939241970553</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.03292702140433944</v>
+        <v>0.004693939241266711</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.06008939241970553</v>
+        <v>1.626655487005965</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.004693939241266711</v>
+        <v>1.431066842950667</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.547694489930553</v>
+        <v>3.823418164437587</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.431066842950667</v>
+        <v>1.550821731955253e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3.823418164437587</v>
+        <v>48560530.57955895</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.550821731955253e-15</v>
+        <v>2.169518702783009e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>48560530.57955895</v>
+        <v>3.657031698534779</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>2.169518702783009e-06</v>
+        <v>0.0001507938875964441</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>3.657031698534779</v>
+        <v>10.10537646716408</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001507938875964441</v>
+        <v>1.154366355855507</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>10.10537646716408</v>
+        <v>0.01539886574800274</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.154366355855507</v>
+        <v>2.761611293189245</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01539886574800274</v>
+        <v>0.9428919751969471</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.761611293189245</v>
+        <v>1.866304381730931</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9428919751969471</v>
+        <v>3</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.866304381730931</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.1651330221350667</v>
       </c>
     </row>
@@ -6129,72 +6051,66 @@
         <v>3.253681277209469e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.1746611599881312</v>
+        <v>8.100899746815169e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.71823851450192</v>
+        <v>1.440985900326725e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>8.100899746815169e-07</v>
+        <v>-0.03510323600357133</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1.440985900326725e-06</v>
+        <v>0.05702751302406155</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.03510323600357133</v>
+        <v>0.004483780071833133</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.05702751302406155</v>
+        <v>1.626303172320658</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.004483780071833133</v>
+        <v>1.428554618292697</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.544878417746978</v>
+        <v>3.853362082210317</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.428554618292697</v>
+        <v>1.526812958731476e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>3.853362082210317</v>
+        <v>50381250.98630751</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.526812958731476e-15</v>
+        <v>2.106364490548143e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>50381250.98630751</v>
+        <v>3.875464217268489</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>2.106364490548143e-06</v>
+        <v>0.0001479524423862564</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>3.875464217268489</v>
+        <v>10.01828086648469</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001479524423862564</v>
+        <v>1.163179457367298</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>10.01828086648469</v>
+        <v>0.01484938765977107</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.163179457367298</v>
+        <v>2.714981498265214</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01484938765977107</v>
+        <v>0.9416322084671011</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.714981498265214</v>
+        <v>1.84305283918819</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9416322084671011</v>
+        <v>3</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.84305283918819</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.1714506744128877</v>
       </c>
     </row>
@@ -6209,72 +6125,66 @@
         <v>3.238837377078368e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.241659586696033</v>
+        <v>8.100899746815169e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.686317297994275</v>
+        <v>1.429237481962159e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>8.100899746815169e-07</v>
+        <v>-0.03725120398843029</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>1.429237481962159e-06</v>
+        <v>0.05435124674016854</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.03725120398843029</v>
+        <v>0.004341226576077227</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.05435124674016854</v>
+        <v>1.631727939948523</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.004341226576077227</v>
+        <v>1.460864085828384</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.550424778022927</v>
+        <v>3.894914056851912</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.460864085828384</v>
+        <v>1.49440983820247e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.894914056851912</v>
+        <v>52007563.28174588</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.49440983820247e-15</v>
+        <v>2.046194684490017e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>52007563.28174588</v>
+        <v>4.042059762820164</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>2.046194684490017e-06</v>
+        <v>0.0001455767624776675</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>4.042059762820164</v>
+        <v>8.865779495066588</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001455767624776675</v>
+        <v>1.2539450249788</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>8.865779495066588</v>
+        <v>0.01144263138882826</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.2539450249788</v>
+        <v>2.911824047950185</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01144263138882826</v>
+        <v>0.9403045560218639</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.911824047950185</v>
+        <v>1.863665576575796</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9403045560218639</v>
+        <v>14</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.863665576575796</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.1633309958845724</v>
       </c>
     </row>
@@ -6289,72 +6199,66 @@
         <v>3.213531091732669e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.3076955723131169</v>
+        <v>8.100899746815169e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.645096032159693</v>
+        <v>1.416907347351294e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>8.100899746815169e-07</v>
+        <v>-0.03900933468195589</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>1.416907347351294e-06</v>
+        <v>0.05284326176019647</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.03900933468195589</v>
+        <v>0.004314202849688877</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.05284326176019647</v>
+        <v>1.644230764020984</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.004314202849688877</v>
+        <v>1.503577606460322</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.563058607518083</v>
+        <v>3.898886588794794</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.503577606460322</v>
+        <v>1.491366114657357e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>3.898886588794794</v>
+        <v>52422779.49555621</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.491366114657357e-15</v>
+        <v>2.03771156142581e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>52422779.49555621</v>
+        <v>4.098494521963046</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>2.03771156142581e-06</v>
+        <v>0.0001703399990729186</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>4.098494521963046</v>
+        <v>8.403984459775698</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001703399990729186</v>
+        <v>1.638762987209069</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>8.403984459775698</v>
+        <v>0.01203059541518086</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.638762987209069</v>
+        <v>2.941599606502981</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01203059541518086</v>
+        <v>0.9384404831156709</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.941599606502981</v>
+        <v>1.873279896917119</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9384404831156709</v>
+        <v>14</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.873279896917119</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.1455553428037602</v>
       </c>
     </row>
@@ -6369,72 +6273,66 @@
         <v>3.18030524340493e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.3731338248534267</v>
+        <v>8.099819208546475e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.595240518155542</v>
+        <v>1.404274546946515e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>8.099819208546475e-07</v>
+        <v>-0.03986877902577323</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>1.404274546946515e-06</v>
+        <v>0.05299734107754921</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.03986877902577323</v>
+        <v>0.004398438660612566</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.05299734107754921</v>
+        <v>1.647101164382201</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.004398438660612566</v>
+        <v>1.503930919910899</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.562310903389452</v>
+        <v>3.886858501795593</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.503930919910899</v>
+        <v>1.500610617302151e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>3.886858501795593</v>
+        <v>51411037.84233483</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.500610617302151e-15</v>
+        <v>2.070740923130291e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>51411037.84233483</v>
+        <v>3.966256137462423</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>2.070740923130291e-06</v>
+        <v>0.0001705447330195844</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>3.966256137462423</v>
+        <v>9.373171697857266</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001705447330195844</v>
+        <v>1.38942534406267</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>9.373171697857266</v>
+        <v>0.01498343735873715</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.38942534406267</v>
+        <v>2.864362638679798</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01498343735873715</v>
+        <v>0.9378577854383846</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.864362638679798</v>
+        <v>1.832391441620909</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9378577854383846</v>
+        <v>12</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.832391441620909</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.1453733781037003</v>
       </c>
     </row>
@@ -6449,72 +6347,66 @@
         <v>3.142237575412498e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.4392883609387159</v>
+        <v>8.051520452105308e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.534962986424711</v>
+        <v>1.391613790654784e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>8.051520452105308e-07</v>
+        <v>-0.04014093710841503</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>1.391613790654784e-06</v>
+        <v>0.05374401684607133</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.04014093710841503</v>
+        <v>0.004499869842689181</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.05374401684607133</v>
+        <v>1.643157967560877</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.004499869842689181</v>
+        <v>1.478607302706785</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.555887683273504</v>
+        <v>3.856724255962761</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.478607302706785</v>
+        <v>1.524152061794382e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>3.856724255962761</v>
+        <v>50104152.59437449</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.524152061794382e-15</v>
+        <v>2.116793292302594e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>50104152.59437449</v>
+        <v>3.826271127271879</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>2.116793292302594e-06</v>
+        <v>0.0001549631577852931</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>3.826271127271879</v>
+        <v>10.50552020647172</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001549631577852931</v>
+        <v>1.12508410108019</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>10.50552020647172</v>
+        <v>0.01710265686912738</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.12508410108019</v>
+        <v>2.722670827597149</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01710265686912738</v>
+        <v>0.9396180191024323</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.722670827597149</v>
+        <v>1.846218318677125</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9396180191024323</v>
+        <v>12</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.846218318677125</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.1616992356228169</v>
       </c>
     </row>
@@ -6891,7 +6783,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.635876810455273</v>
+        <v>1.642687660997138</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.633720599066486</v>
@@ -6980,7 +6872,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.662339088464635</v>
+        <v>1.666123153266193</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.602588489107211</v>
@@ -7069,7 +6961,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.657209776733782</v>
+        <v>1.65866447992482</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.604596718970502</v>
@@ -7158,7 +7050,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.720337069502351</v>
+        <v>1.721387075967073</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.62081571990806</v>
@@ -7247,7 +7139,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.729389270150332</v>
+        <v>1.727768494258271</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.62048339109674</v>
@@ -7336,7 +7228,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.733819174447301</v>
+        <v>1.726438213031282</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.656092456979759</v>
@@ -7425,7 +7317,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.736583363325363</v>
+        <v>1.727223589932168</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.53320661610248</v>
@@ -7514,7 +7406,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.783267206156621</v>
+        <v>1.758029113279592</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.7148052457053</v>
@@ -7603,7 +7495,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.79068613933425</v>
+        <v>1.767189116638737</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.213073911101248</v>
@@ -7692,7 +7584,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.794384914447422</v>
+        <v>1.762916923050249</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.074932406281877</v>
@@ -7781,7 +7673,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.802690589928873</v>
+        <v>1.768757643170745</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.025792847377186</v>
@@ -7870,7 +7762,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.790977281475425</v>
+        <v>1.764872772388551</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.358202419922677</v>
@@ -7959,7 +7851,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.794755211114556</v>
+        <v>1.768775347618737</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.918032166147177</v>
@@ -8048,7 +7940,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.75871467799443</v>
+        <v>1.73633338562886</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.633068514715263</v>
@@ -8137,7 +8029,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.759640349403023</v>
+        <v>1.735939743085333</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.665787424677462</v>
@@ -8226,7 +8118,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.721203512333291</v>
+        <v>1.710703690129285</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.664540416885572</v>
@@ -8315,7 +8207,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.72684949449128</v>
+        <v>1.719100741839069</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.618427375248698</v>
@@ -8404,7 +8296,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.752973339418857</v>
+        <v>1.742840333085529</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.45095614730126</v>
@@ -8493,7 +8385,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.757035024976115</v>
+        <v>1.746738159469194</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.698693934936852</v>
@@ -8582,7 +8474,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.75911611580728</v>
+        <v>1.746715756374624</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.773438944842134</v>
@@ -8671,7 +8563,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.760356431271727</v>
+        <v>1.754865496921756</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.594551867007688</v>
@@ -8760,7 +8652,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.745391854149592</v>
+        <v>1.739918743027026</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.642592706943843</v>
@@ -8849,7 +8741,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.742229607905011</v>
+        <v>1.737958469372522</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.766407406163261</v>
@@ -8938,7 +8830,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.741035556147728</v>
+        <v>1.734571125889458</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.864255189978809</v>
@@ -9027,7 +8919,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.744983952986639</v>
+        <v>1.746301214623427</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.579230589194081</v>
@@ -9116,7 +9008,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.75085323749563</v>
+        <v>1.747846565428935</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.613454658024912</v>
@@ -9205,7 +9097,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.755447981425093</v>
+        <v>1.749816017202575</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.661585288076586</v>
@@ -9294,7 +9186,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.706124177782118</v>
+        <v>1.708558132345169</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.632979817392286</v>
@@ -9383,7 +9275,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.739005311941725</v>
+        <v>1.736761747750872</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.73716036041334</v>
@@ -9472,7 +9364,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.736934907826698</v>
+        <v>1.73378197100437</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.832067219367447</v>
@@ -9561,7 +9453,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.758585547987246</v>
+        <v>1.746092345734711</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.692593773553315</v>
@@ -9650,7 +9542,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.749916844856932</v>
+        <v>1.735500716303071</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.740481606396294</v>
@@ -9739,7 +9631,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.742215293352565</v>
+        <v>1.726712371504341</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.675351519773683</v>
@@ -9828,7 +9720,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.735316370604748</v>
+        <v>1.712712322238448</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.78521243562065</v>
@@ -9917,7 +9809,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.729772063128274</v>
+        <v>1.704389886003411</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.646925755519484</v>
@@ -10006,7 +9898,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.730523052424397</v>
+        <v>1.703999234877906</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.511134683147091</v>
@@ -10095,7 +9987,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.745939263919788</v>
+        <v>1.715687343753286</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.70807366807239</v>
@@ -10184,7 +10076,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.750030171975342</v>
+        <v>1.718357695505895</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.789188986216629</v>
@@ -10273,7 +10165,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.74193412176833</v>
+        <v>1.708840854450719</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.573668168632858</v>
@@ -10362,7 +10254,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.736775305427638</v>
+        <v>1.703008607562119</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.674919695621057</v>
@@ -10451,7 +10343,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.737697929401074</v>
+        <v>1.704362135301971</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.717157065469242</v>
@@ -10540,7 +10432,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.664037900678337</v>
+        <v>1.646566587171354</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.523709264527207</v>
@@ -10629,7 +10521,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.686376924124388</v>
+        <v>1.671936391455579</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.573745847569926</v>
@@ -10718,7 +10610,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.677658930993111</v>
+        <v>1.662673842875092</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.498793760920706</v>
@@ -10807,7 +10699,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.676038373307035</v>
+        <v>1.660051746464308</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.556581991088867</v>
@@ -10896,7 +10788,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.689042633805202</v>
+        <v>1.66921540333785</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.570727242093882</v>
@@ -10985,7 +10877,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.682162223968213</v>
+        <v>1.664667717053213</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.567262238424101</v>
@@ -11074,7 +10966,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.555694216416096</v>
+        <v>1.536129782473907</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.910675360036249</v>
@@ -11163,7 +11055,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.481921063978628</v>
+        <v>1.486490889620396</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.923910475773102</v>
@@ -11252,7 +11144,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.486100445936939</v>
+        <v>1.496747421595693</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.947975366555189</v>
@@ -11341,7 +11233,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.492226147628807</v>
+        <v>1.503741215732586</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.966754148134049</v>
@@ -11430,7 +11322,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.496863790785902</v>
+        <v>1.510243090019864</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.972636275724052</v>
@@ -11519,7 +11411,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.49837360201653</v>
+        <v>1.5111444435323</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.974347028971795</v>
@@ -11608,7 +11500,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.504067305677543</v>
+        <v>1.517595216271135</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.965310945130564</v>
@@ -11697,7 +11589,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.503973582395153</v>
+        <v>1.519584671698311</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.973800302656677</v>
@@ -11786,7 +11678,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.50400352101876</v>
+        <v>1.518403868138514</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.003045396349598</v>
@@ -11875,7 +11767,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.544686818750237</v>
+        <v>1.550006338474893</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.997438606772387</v>
@@ -11964,7 +11856,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.554816362697547</v>
+        <v>1.555437596083446</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.961039968418236</v>
@@ -12053,7 +11945,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.54729027065642</v>
+        <v>1.547060033233889</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.957321939751826</v>
@@ -12142,7 +12034,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.545332300340841</v>
+        <v>1.545955865926392</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.985121241950615</v>
@@ -12231,7 +12123,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.541053962798595</v>
+        <v>1.541434125682161</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.956517249439511</v>
@@ -12517,7 +12409,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.56714481556384</v>
+        <v>1.570877441207717</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.925910842383022</v>
@@ -12606,7 +12498,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.588511406461345</v>
+        <v>1.594672760275884</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.832287039795129</v>
@@ -12695,7 +12587,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.60244302469106</v>
+        <v>1.615265775072468</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.413169507744598</v>
@@ -12784,7 +12676,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.627436254057382</v>
+        <v>1.650371255122726</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.755352176655737</v>
@@ -12873,7 +12765,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.627593151556264</v>
+        <v>1.646804169040867</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.647277685322292</v>
@@ -12962,7 +12854,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.623867692433678</v>
+        <v>1.639580507627752</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.713671837713398</v>
@@ -13051,7 +12943,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.62020894889085</v>
+        <v>1.635164146710883</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.782243462014889</v>
@@ -13140,7 +13032,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.641348530912733</v>
+        <v>1.654618107596928</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.664894352618681</v>
@@ -13229,7 +13121,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.647614474137305</v>
+        <v>1.656988630921367</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.653927190967079</v>
@@ -13318,7 +13210,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.653437120222563</v>
+        <v>1.65582219317266</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.723922635268797</v>
@@ -13407,7 +13299,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.680842984609581</v>
+        <v>1.674435061367557</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.120019955787018</v>
@@ -13496,7 +13388,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.685603664941306</v>
+        <v>1.681125880076777</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.072296989558279</v>
@@ -13585,7 +13477,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.689560110711823</v>
+        <v>1.68905634496655</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.990032011029846</v>
@@ -13674,7 +13566,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.674121536883763</v>
+        <v>1.677584581822263</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.079853599319043</v>
@@ -13763,7 +13655,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.666645845605785</v>
+        <v>1.670702857754881</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.214875069757786</v>
@@ -13852,7 +13744,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.677104517531841</v>
+        <v>1.677351228223353</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.963382262714152</v>
@@ -13941,7 +13833,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.658871999304499</v>
+        <v>1.663279587515387</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.047229077198176</v>
@@ -14030,7 +13922,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.684501061345534</v>
+        <v>1.68048133409541</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.511110110428871</v>
@@ -14119,7 +14011,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.696351367536062</v>
+        <v>1.680925853521464</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.860116216572858</v>
@@ -14208,7 +14100,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.691326106696885</v>
+        <v>1.676049645348671</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.983807345169356</v>
@@ -14297,7 +14189,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.684228186216887</v>
+        <v>1.670394678916241</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.901448619062017</v>
@@ -14386,7 +14278,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.66505737623606</v>
+        <v>1.64975007265202</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.875851258435757</v>
@@ -14475,7 +14367,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.654260759997753</v>
+        <v>1.639002095731013</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.983278926035922</v>
@@ -14564,7 +14456,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.643456167729633</v>
+        <v>1.62802093562172</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.911518682144259</v>
@@ -14653,7 +14545,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.633928122960979</v>
+        <v>1.620695393445739</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.721950766573786</v>
@@ -14742,7 +14634,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.636946162493032</v>
+        <v>1.630868655856715</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.839706673353054</v>
@@ -14831,7 +14723,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.643564580024938</v>
+        <v>1.631688303821238</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.792624869531115</v>
@@ -14920,7 +14812,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.635202768618736</v>
+        <v>1.622461825169389</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.05605220569577</v>
@@ -15009,7 +14901,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.645752116786518</v>
+        <v>1.62129396987863</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.637194046399041</v>
@@ -15098,7 +14990,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.644834761757957</v>
+        <v>1.62371691536192</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.749812362601152</v>
@@ -15187,7 +15079,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.656249085348834</v>
+        <v>1.631857845116197</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.234133352496474</v>
@@ -15276,7 +15168,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.671661820068807</v>
+        <v>1.639517196235103</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.202485232433296</v>
@@ -15365,7 +15257,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.655639709442157</v>
+        <v>1.622272345273079</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.886122436556179</v>
@@ -15454,7 +15346,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.643947153580285</v>
+        <v>1.613274195414586</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.300880587818934</v>
@@ -15543,7 +15435,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.643417307544584</v>
+        <v>1.613817740335787</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.886884557425424</v>
@@ -15632,7 +15524,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.644663775239534</v>
+        <v>1.615674500950794</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.665722693278059</v>
@@ -15721,7 +15613,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.662130690980588</v>
+        <v>1.629896726299755</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.290965615113164</v>
@@ -15810,7 +15702,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.661063655212754</v>
+        <v>1.630570900530013</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.281533710648143</v>
@@ -15899,7 +15791,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.661742927124967</v>
+        <v>1.626678455169373</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.171055784882912</v>
@@ -15988,7 +15880,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.667258522930503</v>
+        <v>1.634753869236845</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.173110760544323</v>
@@ -16077,7 +15969,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.669593595176903</v>
+        <v>1.634859768091393</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.141219472202919</v>
@@ -16166,7 +16058,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.622061795903732</v>
+        <v>1.60234361151476</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.323617279043285</v>
@@ -16255,7 +16147,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.606897651405483</v>
+        <v>1.596442886036559</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.419719771761927</v>
@@ -16344,7 +16236,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.604159008636281</v>
+        <v>1.596070032798569</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.267745626401155</v>
@@ -16433,7 +16325,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.611213831793012</v>
+        <v>1.601329917335722</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.377241059178459</v>
@@ -16522,7 +16414,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.621343186097012</v>
+        <v>1.612241996888159</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.383008563531209</v>
@@ -16611,7 +16503,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.590440894487114</v>
+        <v>1.586370618635055</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.337982359972605</v>
@@ -16700,7 +16592,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.331969363928296</v>
+        <v>1.341045864154576</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.572211234907126</v>
@@ -16789,7 +16681,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.275213107231486</v>
+        <v>1.294919030708533</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.605476806276436</v>
@@ -16878,7 +16770,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.283768654078739</v>
+        <v>1.307491508454526</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.62327689200182</v>
@@ -16967,7 +16859,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.291928056284137</v>
+        <v>1.318777662867139</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.62323507581418</v>
@@ -17056,7 +16948,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.296662931667679</v>
+        <v>1.324542375543825</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.627798147625634</v>
@@ -17145,7 +17037,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.302299178094886</v>
+        <v>1.330874365075793</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.636531834703679</v>
@@ -17234,7 +17126,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.314063832592923</v>
+        <v>1.345876210081187</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.638557811756944</v>
@@ -17323,7 +17215,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.315591311117698</v>
+        <v>1.350739120349344</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.647431758369668</v>
@@ -17412,7 +17304,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.314205804644377</v>
+        <v>1.348638812588429</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.650743258762747</v>
@@ -17501,7 +17393,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.324826165635394</v>
+        <v>1.357157086642732</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.652331574203948</v>
@@ -17590,7 +17482,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.326137087730721</v>
+        <v>1.356996081853065</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.627821456130652</v>
@@ -17679,7 +17571,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.325026221195638</v>
+        <v>1.356117436616001</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.629563329449944</v>
@@ -17768,7 +17660,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.325247438851427</v>
+        <v>1.354234107435467</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.633348402061571</v>
@@ -17857,7 +17749,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.320292423957135</v>
+        <v>1.349361304494983</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.629414755414199</v>
@@ -18143,7 +18035,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.63178706768436</v>
+        <v>1.629344154979704</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.177058735104299</v>
@@ -18232,7 +18124,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.651580197811054</v>
+        <v>1.651471418166492</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.091094084108004</v>
@@ -18321,7 +18213,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.672261216155251</v>
+        <v>1.666902940396472</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.464463744075817</v>
@@ -18410,7 +18302,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.689855029975099</v>
+        <v>1.676470176471461</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.941268159163315</v>
@@ -18499,7 +18391,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.674555301065776</v>
+        <v>1.664032423445649</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.605714995869007</v>
@@ -18588,7 +18480,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.661675676521871</v>
+        <v>1.65248300768133</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.755085407235776</v>
@@ -18677,7 +18569,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.65824450189596</v>
+        <v>1.647118624403237</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.135100164841865</v>
@@ -18766,7 +18658,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.651869518710195</v>
+        <v>1.639491001628057</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.273078313361999</v>
@@ -18855,7 +18747,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.655194876335332</v>
+        <v>1.64675764192431</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.138941379923673</v>
@@ -18944,7 +18836,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.660450657540169</v>
+        <v>1.645446082182211</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.533747894199154</v>
@@ -19033,7 +18925,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.657841801376549</v>
+        <v>1.640167918520579</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.171026785755071</v>
@@ -19122,7 +19014,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.652780740016214</v>
+        <v>1.636633937002324</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.424474382049137</v>
@@ -19211,7 +19103,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.668754487681911</v>
+        <v>1.652930462129167</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.37876856762004</v>
@@ -19300,7 +19192,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.67694782374605</v>
+        <v>1.659596812111422</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.787924507894624</v>
@@ -19389,7 +19281,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.683750657591697</v>
+        <v>1.666620837801207</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.372272240101207</v>
@@ -19478,7 +19370,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.673100130625952</v>
+        <v>1.661775864425044</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.747682253617224</v>
@@ -19567,7 +19459,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.669958319672095</v>
+        <v>1.662660641640432</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.851865130772065</v>
@@ -19656,7 +19548,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.663135744375354</v>
+        <v>1.6567956466444</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.270337253359842</v>
@@ -19745,7 +19637,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.675818945143192</v>
+        <v>1.670620569280908</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.468772448554882</v>
@@ -19834,7 +19726,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.674553882363713</v>
+        <v>1.671954822674449</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.767739369926827</v>
@@ -19923,7 +19815,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.676557944306404</v>
+        <v>1.671430858548229</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.318761917929878</v>
@@ -20012,7 +19904,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.671630123756064</v>
+        <v>1.66231205865193</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.583057639103171</v>
@@ -20101,7 +19993,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.67101753661768</v>
+        <v>1.656920833881927</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.464046214688424</v>
@@ -20190,7 +20082,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.670668524986902</v>
+        <v>1.656648821132162</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.691158603239924</v>
@@ -20279,7 +20171,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.672324328069779</v>
+        <v>1.655027494193714</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.927864265057429</v>
@@ -20368,7 +20260,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.670390539253871</v>
+        <v>1.653726456658276</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.963019450865239</v>
@@ -20457,7 +20349,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.671785160038598</v>
+        <v>1.658897564502074</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.744557578062164</v>
@@ -20546,7 +20438,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.665212760173002</v>
+        <v>1.656030165736323</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.10967803245677</v>
@@ -20635,7 +20527,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.661418657958314</v>
+        <v>1.650957430912004</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.304544494266419</v>
@@ -20724,7 +20616,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.655308383723024</v>
+        <v>1.643302039255195</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.225738805001064</v>
@@ -20813,7 +20705,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.662723878334039</v>
+        <v>1.646559470080478</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.565659844093993</v>
@@ -20902,7 +20794,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.666016081077888</v>
+        <v>1.64776391234057</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.383125266261133</v>
@@ -20991,7 +20883,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.668597277656515</v>
+        <v>1.649599172176148</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.610199372794295</v>
@@ -21080,7 +20972,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.663935456888322</v>
+        <v>1.647488460513703</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.536390502718338</v>
@@ -21169,7 +21061,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.657749284049853</v>
+        <v>1.637058143018531</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.862926002940155</v>
@@ -21258,7 +21150,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.657364017229037</v>
+        <v>1.637032486013598</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.684269275553649</v>
@@ -21347,7 +21239,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.663053295712892</v>
+        <v>1.636926570778216</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.483510845904395</v>
@@ -21436,7 +21328,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.659654110086096</v>
+        <v>1.639936804764225</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.562724505152524</v>
@@ -21525,7 +21417,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.665532707388627</v>
+        <v>1.645056774248834</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.675089831910673</v>
@@ -21614,7 +21506,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.661423758445198</v>
+        <v>1.639600848082005</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.484886791346891</v>
@@ -21703,7 +21595,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.663868250806479</v>
+        <v>1.643793119955749</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.551214187939352</v>
@@ -21792,7 +21684,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.591739608397186</v>
+        <v>1.565867531313174</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.102076505560434</v>
@@ -21881,7 +21773,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.559157283818431</v>
+        <v>1.544291759314854</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.105550777599137</v>
@@ -21970,7 +21862,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.55385039275424</v>
+        <v>1.539166909892882</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.119990991202393</v>
@@ -22059,7 +21951,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.561276855550465</v>
+        <v>1.544812978609067</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.1242185541973</v>
@@ -22148,7 +22040,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.562285927828334</v>
+        <v>1.542236754754095</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.114001783960881</v>
@@ -22237,7 +22129,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.558568094500886</v>
+        <v>1.536553495493362</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.125055720063446</v>
@@ -22326,7 +22218,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.484201997316656</v>
+        <v>1.455654920101059</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.132041219149167</v>
@@ -22415,7 +22307,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.459468667592552</v>
+        <v>1.436515468193785</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.127396648979154</v>
@@ -22504,7 +22396,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.461100011783056</v>
+        <v>1.442044195438237</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.165278874263099</v>
@@ -22593,7 +22485,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.467798151300594</v>
+        <v>1.449848697259946</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.1506725008368</v>
@@ -22682,7 +22574,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.472819889439827</v>
+        <v>1.455283698192904</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.189574876548849</v>
@@ -22771,7 +22663,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.474012807581833</v>
+        <v>1.456832236916086</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.195341861764383</v>
@@ -22860,7 +22752,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.476104728682869</v>
+        <v>1.455031877697138</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.124776458234769</v>
@@ -22949,7 +22841,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.474817900927698</v>
+        <v>1.456394924334323</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.182890278737815</v>
@@ -23038,7 +22930,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.473577526306076</v>
+        <v>1.45431306152157</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.17017478791926</v>
@@ -23127,7 +23019,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.523083677503912</v>
+        <v>1.496840131224763</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.109172681820066</v>
@@ -23216,7 +23108,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.518643333244854</v>
+        <v>1.492032320254888</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.118890751399915</v>
@@ -23305,7 +23197,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.515777463026459</v>
+        <v>1.491384752981836</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.128104535864542</v>
@@ -23394,7 +23286,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.504518775037283</v>
+        <v>1.484109508958322</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.151504482454918</v>
@@ -23483,7 +23375,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.501642323079285</v>
+        <v>1.482269001037605</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.145491930268458</v>
@@ -23769,7 +23661,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.683838406309493</v>
+        <v>1.65029021451406</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.343939498605287</v>
@@ -23858,7 +23750,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.708332271417954</v>
+        <v>1.66948596292745</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.937506902004139</v>
@@ -23947,7 +23839,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.706415934922823</v>
+        <v>1.668057121790096</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.479381749719089</v>
@@ -24036,7 +23928,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.713238835693576</v>
+        <v>1.671875176705032</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.771761646475652</v>
@@ -24125,7 +24017,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.715255729714685</v>
+        <v>1.668981289134784</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.745531187496492</v>
@@ -24214,7 +24106,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.708703967383254</v>
+        <v>1.667419947566701</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>4.062462422934281</v>
@@ -24303,7 +24195,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.715051006517626</v>
+        <v>1.669827657471754</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.90905114511811</v>
@@ -24392,7 +24284,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.719424003404207</v>
+        <v>1.676414170299071</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>4.096691803538025</v>
@@ -24481,7 +24373,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.71760983536555</v>
+        <v>1.673122425905964</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>4.023099024761854</v>
@@ -24570,7 +24462,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.714249318839268</v>
+        <v>1.665811503401954</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.519273892563208</v>
@@ -24659,7 +24551,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.712628689099435</v>
+        <v>1.659632195573808</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.159860176378076</v>
@@ -24748,7 +24640,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.707978326648355</v>
+        <v>1.654238742950965</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.527479012769223</v>
@@ -24837,7 +24729,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.706975019519496</v>
+        <v>1.659769614551241</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.923895462047382</v>
@@ -24926,7 +24818,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.708383616707837</v>
+        <v>1.666169901594601</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.704745572235896</v>
@@ -25015,7 +24907,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.696208983034748</v>
+        <v>1.659612635258527</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.587140074286157</v>
@@ -25104,7 +24996,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.697353554002682</v>
+        <v>1.656965838599625</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.142088999219998</v>
@@ -25193,7 +25085,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.69826118886734</v>
+        <v>1.663281588631435</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.825682960500775</v>
@@ -25282,7 +25174,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.718669553805746</v>
+        <v>1.68545441018649</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.027680535206554</v>
@@ -25371,7 +25263,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.727406255874451</v>
+        <v>1.691729278482191</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.937132780709354</v>
@@ -25460,7 +25352,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.730438064511521</v>
+        <v>1.685652736987654</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.520125375491427</v>
@@ -25549,7 +25441,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.729590505160339</v>
+        <v>1.683310559447816</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.941339284001643</v>
@@ -25638,7 +25530,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.725104440809291</v>
+        <v>1.673342925495527</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.399384715727753</v>
@@ -25727,7 +25619,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.722244701703492</v>
+        <v>1.669542674208731</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.511427451143154</v>
@@ -25816,7 +25708,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.72327071935035</v>
+        <v>1.673981805781627</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.654444860223208</v>
@@ -25905,7 +25797,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.73094852793405</v>
+        <v>1.680259098375363</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.931230985767537</v>
@@ -25994,7 +25886,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.731727547937348</v>
+        <v>1.684613597151003</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.906043718975536</v>
@@ -26083,7 +25975,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.746279445624757</v>
+        <v>1.693492185837351</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.865406325201858</v>
@@ -26172,7 +26064,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.743853005347226</v>
+        <v>1.689238400407919</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.875417408409481</v>
@@ -26261,7 +26153,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.741235626718076</v>
+        <v>1.676810587395798</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.726458497699121</v>
@@ -26350,7 +26242,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.744335925314417</v>
+        <v>1.675908709240136</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.385027959776481</v>
@@ -26439,7 +26331,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.746467443385739</v>
+        <v>1.672914430035214</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.570766257778737</v>
@@ -26528,7 +26420,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.755106862711676</v>
+        <v>1.674587149038607</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.036569022268564</v>
@@ -26617,7 +26509,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.749743940446502</v>
+        <v>1.667928369101437</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.645357606172208</v>
@@ -26706,7 +26598,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.743732922386501</v>
+        <v>1.657632030751084</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.329177816023145</v>
@@ -26795,7 +26687,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.735187165161187</v>
+        <v>1.66049914502555</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.971264963619808</v>
@@ -26884,7 +26776,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.729902634344759</v>
+        <v>1.650616929520134</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.946514341708637</v>
@@ -26973,7 +26865,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.739538939440162</v>
+        <v>1.66243673999301</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.701775130311081</v>
@@ -27062,7 +26954,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.739463092432226</v>
+        <v>1.665373718893132</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.72413801897204</v>
@@ -27151,7 +27043,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.739850147756643</v>
+        <v>1.663577915445372</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.822738799330909</v>
@@ -27240,7 +27132,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.730793970893262</v>
+        <v>1.655703705217239</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.369413827961079</v>
@@ -27329,7 +27221,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.729966843984811</v>
+        <v>1.653903251987176</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.133954649460967</v>
@@ -27418,7 +27310,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.64186500645458</v>
+        <v>1.592196662373828</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.344042333032943</v>
@@ -27507,7 +27399,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.641799748652308</v>
+        <v>1.597728009951825</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.358780431929175</v>
@@ -27596,7 +27488,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.64372270976583</v>
+        <v>1.611830885017502</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.402620777120319</v>
@@ -27685,7 +27577,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.652993421816404</v>
+        <v>1.620741557355613</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.38891979939388</v>
@@ -27774,7 +27666,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.649869147372114</v>
+        <v>1.621929575518926</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.373749413510816</v>
@@ -27863,7 +27755,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.646214766866586</v>
+        <v>1.620647187379648</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.36250556918637</v>
@@ -27952,7 +27844,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.554833116304034</v>
+        <v>1.527085404505275</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.139620333232667</v>
@@ -28041,7 +27933,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.533833930189807</v>
+        <v>1.513285925676282</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.123700809983871</v>
@@ -28130,7 +28022,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.533617135404048</v>
+        <v>1.515441911837666</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.156935374451839</v>
@@ -28219,7 +28111,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.538473055636886</v>
+        <v>1.522627145644427</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.206743484240155</v>
@@ -28308,7 +28200,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.537051829803907</v>
+        <v>1.521434576266216</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.136759170748851</v>
@@ -28397,7 +28289,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.537343919851488</v>
+        <v>1.519844787926228</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.194476106221225</v>
@@ -28486,7 +28378,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.538635479568585</v>
+        <v>1.521306152635537</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.147525133500081</v>
@@ -28575,7 +28467,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.53859568606448</v>
+        <v>1.523863507096966</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.228235981504974</v>
@@ -28664,7 +28556,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.543540123567392</v>
+        <v>1.52797418355491</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.139644753734061</v>
@@ -28753,7 +28645,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.594062546352299</v>
+        <v>1.566201949441907</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.008744370108423</v>
@@ -28842,7 +28734,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.596548076584778</v>
+        <v>1.567558379355138</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.131102105967811</v>
@@ -28931,7 +28823,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.593795460497035</v>
+        <v>1.55613714072958</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.098915871101664</v>
@@ -29020,7 +28912,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.593703990457822</v>
+        <v>1.555386714883076</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.133350065838239</v>
@@ -29109,7 +29001,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.599513180178651</v>
+        <v>1.559335791262356</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.122013964408394</v>
@@ -29395,7 +29287,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.54077619293715</v>
+        <v>1.531933264707959</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.468601017871845</v>
@@ -29484,7 +29376,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.559825993617287</v>
+        <v>1.553670702894491</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.592385379293606</v>
@@ -29573,7 +29465,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.573657756897755</v>
+        <v>1.568331899549722</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.542543787093042</v>
@@ -29662,7 +29554,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.602784912215157</v>
+        <v>1.598446996753653</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.611834343722641</v>
@@ -29751,7 +29643,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.608148265095715</v>
+        <v>1.601356739470623</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.674626168822001</v>
@@ -29840,7 +29732,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.609226069283196</v>
+        <v>1.600180449424205</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.627131228725812</v>
@@ -29929,7 +29821,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.618819148209138</v>
+        <v>1.603965974681313</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.694256303701446</v>
@@ -30018,7 +29910,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.614218375526181</v>
+        <v>1.601906836649736</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.695136784905985</v>
@@ -30107,7 +29999,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.609512049203593</v>
+        <v>1.598734240146737</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.710015678040132</v>
@@ -30196,7 +30088,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.609454697729678</v>
+        <v>1.596247953822642</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.746932313742696</v>
@@ -30285,7 +30177,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.63141720960643</v>
+        <v>1.614408668642227</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.43554459501623</v>
@@ -30374,7 +30266,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.634238055541521</v>
+        <v>1.620869096088025</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.532686869993276</v>
@@ -30463,7 +30355,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.639469250723513</v>
+        <v>1.624540179674098</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.669922401710144</v>
@@ -30552,7 +30444,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.636359209516081</v>
+        <v>1.625773509283553</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.588006486543797</v>
@@ -30641,7 +30533,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.632907408575646</v>
+        <v>1.620164705569495</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.633632635414473</v>
@@ -30730,7 +30622,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.645927115906614</v>
+        <v>1.630435605746007</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.807932549856671</v>
@@ -30819,7 +30711,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.632262575502875</v>
+        <v>1.61715952436003</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.381499425326225</v>
@@ -30908,7 +30800,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.650988878921328</v>
+        <v>1.628476221296964</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.537915342408691</v>
@@ -30997,7 +30889,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.651560620971085</v>
+        <v>1.627123673746826</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.619224151387131</v>
@@ -31086,7 +30978,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.648255991297964</v>
+        <v>1.621514148847114</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.086278015867201</v>
@@ -31175,7 +31067,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.655021677749383</v>
+        <v>1.62317993971877</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.240705022333507</v>
@@ -31264,7 +31156,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.646536245117495</v>
+        <v>1.616568679657538</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.098506529368338</v>
@@ -31353,7 +31245,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.635842700195431</v>
+        <v>1.606964032996417</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.206622330570879</v>
@@ -31442,7 +31334,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.646307550049932</v>
+        <v>1.6112174033721</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.92674676754324</v>
@@ -31531,7 +31423,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.640979461344619</v>
+        <v>1.605364847871288</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.192923316958136</v>
@@ -31620,7 +31512,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.644353872471231</v>
+        <v>1.609161997653051</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.231667000367072</v>
@@ -31709,7 +31601,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.631915706650438</v>
+        <v>1.594169762920179</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.028397285858164</v>
@@ -31798,7 +31690,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.620668476481073</v>
+        <v>1.583602998122562</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.135864750554965</v>
@@ -31887,7 +31779,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.615367450470114</v>
+        <v>1.573696964029818</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.999596548094872</v>
@@ -31976,7 +31868,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.620190029437878</v>
+        <v>1.576051797763423</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.071624468325591</v>
@@ -32065,7 +31957,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.619999955110425</v>
+        <v>1.576958630201237</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.843804580271601</v>
@@ -32154,7 +32046,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.628668495719054</v>
+        <v>1.591049611342921</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.928983343944529</v>
@@ -32243,7 +32135,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.618927403098243</v>
+        <v>1.586376425409553</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.792915436557263</v>
@@ -32332,7 +32224,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.605587080819148</v>
+        <v>1.577564214045093</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.867903979035226</v>
@@ -32421,7 +32313,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.612944081976504</v>
+        <v>1.587125104160734</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.073080110803728</v>
@@ -32510,7 +32402,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.610714142404174</v>
+        <v>1.5886586803444</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.785784631134836</v>
@@ -32599,7 +32491,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.619051384145892</v>
+        <v>1.597468858119665</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.135513877170811</v>
@@ -32688,7 +32580,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.629314645073003</v>
+        <v>1.602465415634038</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.21696942877741</v>
@@ -32777,7 +32669,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.631359652794188</v>
+        <v>1.603541343591056</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.811794690237266</v>
@@ -32866,7 +32758,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.632215678826108</v>
+        <v>1.599292471330066</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.322734153998316</v>
@@ -32955,7 +32847,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.59298110304466</v>
+        <v>1.569637884039369</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.193144798314115</v>
@@ -33044,7 +32936,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.30735195683097</v>
+        <v>1.301797536985295</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.447018080558811</v>
@@ -33133,7 +33025,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.26823863444621</v>
+        <v>1.266190044556452</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.461144913031087</v>
@@ -33222,7 +33114,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.268030006875129</v>
+        <v>1.268548308880285</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.465385629940701</v>
@@ -33311,7 +33203,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.269430120558671</v>
+        <v>1.272001612519909</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.465895764140208</v>
@@ -33400,7 +33292,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.270077874734018</v>
+        <v>1.274144400690765</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.463717359568663</v>
@@ -33489,7 +33381,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.257579732122059</v>
+        <v>1.25951722229043</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.475402650054714</v>
@@ -33578,7 +33470,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.190343428854016</v>
+        <v>1.169414108512715</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.502993013395459</v>
@@ -33667,7 +33559,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.180604164464605</v>
+        <v>1.154442922861808</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.531669583939054</v>
@@ -33756,7 +33648,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.180143507976905</v>
+        <v>1.156575954189354</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.539718380875058</v>
@@ -33845,7 +33737,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.181717324760781</v>
+        <v>1.1588221776006</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.537676169730728</v>
@@ -33934,7 +33826,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.183580385090354</v>
+        <v>1.161103269045998</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.541210696896879</v>
@@ -34023,7 +33915,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.18636219428893</v>
+        <v>1.166027088112891</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.54469282836578</v>
@@ -34112,7 +34004,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.188067675998836</v>
+        <v>1.168675384671441</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.54154642012568</v>
@@ -34201,7 +34093,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.189652669061069</v>
+        <v>1.171763452819211</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.541087238608576</v>
@@ -34290,7 +34182,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.196129019647922</v>
+        <v>1.177170593795499</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.561631355529449</v>
@@ -34379,7 +34271,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.241893630453676</v>
+        <v>1.223081773102562</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.480806798236714</v>
@@ -34468,7 +34360,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.254852977356746</v>
+        <v>1.23599974514235</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.47809834031036</v>
@@ -34557,7 +34449,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.253996237873885</v>
+        <v>1.232200727423458</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.480706761861989</v>
@@ -34646,7 +34538,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.251725790140981</v>
+        <v>1.228551226946011</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.478513005174177</v>
@@ -34735,7 +34627,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.249694884763256</v>
+        <v>1.225656686627798</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.473059361506923</v>
@@ -35021,7 +34913,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.560647353491139</v>
+        <v>1.554367962214846</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.489608046407123</v>
@@ -35110,7 +35002,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.568939452616683</v>
+        <v>1.56410078781484</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.535154145676441</v>
@@ -35199,7 +35091,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.558961120119</v>
+        <v>1.547410821080006</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.41578249824755</v>
@@ -35288,7 +35180,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.610893064381259</v>
+        <v>1.597110083047351</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.407485473557242</v>
@@ -35377,7 +35269,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.614120716426497</v>
+        <v>1.600258959568596</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.612628389519314</v>
@@ -35466,7 +35358,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.615565037113924</v>
+        <v>1.603513419178341</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.492955676336711</v>
@@ -35555,7 +35447,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.628303492730325</v>
+        <v>1.614134149663636</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.37336843322098</v>
@@ -35644,7 +35536,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.6675556265588</v>
+        <v>1.653076993978671</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.417020410014908</v>
@@ -35733,7 +35625,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.671665160243904</v>
+        <v>1.651475995298262</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.791214505569241</v>
@@ -35822,7 +35714,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.668897752780792</v>
+        <v>1.650906360000232</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.663069914265438</v>
@@ -35911,7 +35803,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.671917166795618</v>
+        <v>1.652687629956836</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.625319046612199</v>
@@ -36000,7 +35892,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.658853692871226</v>
+        <v>1.644452029252107</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.60668036621079</v>
@@ -36089,7 +35981,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.649580533763047</v>
+        <v>1.637034893111879</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.517558400968988</v>
@@ -36178,7 +36070,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.622033577140624</v>
+        <v>1.607937736024689</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.525967490766408</v>
@@ -36267,7 +36159,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.606988665184759</v>
+        <v>1.593423394854169</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.593290823338286</v>
@@ -36356,7 +36248,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.579338208547229</v>
+        <v>1.568803532574439</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.415926956195487</v>
@@ -36445,7 +36337,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.5877268185707</v>
+        <v>1.580973568028729</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.504567947007686</v>
@@ -36534,7 +36426,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.61747727080825</v>
+        <v>1.609494780069858</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.47526625732665</v>
@@ -36623,7 +36515,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.625121084706659</v>
+        <v>1.619895062185521</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.615979602999023</v>
@@ -36712,7 +36604,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.628412303255369</v>
+        <v>1.621625362938417</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.767240985194415</v>
@@ -36801,7 +36693,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.626422577237152</v>
+        <v>1.621320518274073</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.582368638907339</v>
@@ -36890,7 +36782,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.631512398201294</v>
+        <v>1.630767775630815</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.491491291868736</v>
@@ -36979,7 +36871,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.63151146467855</v>
+        <v>1.626581628313325</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.701925144595675</v>
@@ -37068,7 +36960,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.630662217081739</v>
+        <v>1.627560416592192</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.57582995651295</v>
@@ -37157,7 +37049,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.633012739911121</v>
+        <v>1.632415399632003</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.711362082412625</v>
@@ -37246,7 +37138,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.630001590346921</v>
+        <v>1.629713502920165</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.538438169358347</v>
@@ -37335,7 +37227,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.632320082387775</v>
+        <v>1.631888224991925</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.623533009453991</v>
@@ -37424,7 +37316,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.599338802432946</v>
+        <v>1.606580713925615</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.498613593328448</v>
@@ -37513,7 +37405,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.616950981423003</v>
+        <v>1.62178463599596</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.730541973908997</v>
@@ -37602,7 +37494,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.627653254403557</v>
+        <v>1.627580793833338</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.449461150595517</v>
@@ -37691,7 +37583,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.644122120308594</v>
+        <v>1.640959628869182</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.347997577285384</v>
@@ -37780,7 +37672,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.638642822865474</v>
+        <v>1.633769223149498</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.402791328481737</v>
@@ -37869,7 +37761,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.627880916410516</v>
+        <v>1.619596517277521</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.405581148262024</v>
@@ -37958,7 +37850,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.6132536182</v>
+        <v>1.600785331407805</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.445303176804668</v>
@@ -38047,7 +37939,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.616813072404145</v>
+        <v>1.602869310958085</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.430595472365566</v>
@@ -38136,7 +38028,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.612974732155792</v>
+        <v>1.59710741576572</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.399300524880644</v>
@@ -38225,7 +38117,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.605135735211762</v>
+        <v>1.587540009207256</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.348883788731632</v>
@@ -38314,7 +38206,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.596693664058299</v>
+        <v>1.578267225751482</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.459298191163821</v>
@@ -38403,7 +38295,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.593966071171298</v>
+        <v>1.572810998876791</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.281553158143152</v>
@@ -38492,7 +38384,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.595152426393373</v>
+        <v>1.569179151378576</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.518140600414587</v>
@@ -38581,7 +38473,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.604845299317557</v>
+        <v>1.581800368702043</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.302926753240645</v>
@@ -38670,7 +38562,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.558726320687796</v>
+        <v>1.546603057611183</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.319037699815349</v>
@@ -38759,7 +38651,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.581216493737004</v>
+        <v>1.566842127760157</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.534122858345687</v>
@@ -38848,7 +38740,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.574482751368114</v>
+        <v>1.565413683849424</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.49906879778569</v>
@@ -38937,7 +38829,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.572294797633755</v>
+        <v>1.566932990665869</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.514195378827725</v>
@@ -39026,7 +38918,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.592072765472496</v>
+        <v>1.581883813306706</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.497367436481901</v>
@@ -39115,7 +39007,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.598705500646025</v>
+        <v>1.592600028106646</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.450207401643961</v>
@@ -39204,7 +39096,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.526868270889187</v>
+        <v>1.516211166945612</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.047330863017695</v>
@@ -39293,7 +39185,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.492012652189195</v>
+        <v>1.489148674653673</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.069723195727798</v>
@@ -39382,7 +39274,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.475763991595248</v>
+        <v>1.483424221608829</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.061641666029811</v>
@@ -39471,7 +39363,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.483114349970188</v>
+        <v>1.49195128145391</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.062066064984684</v>
@@ -39560,7 +39452,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.494849404009586</v>
+        <v>1.503337193032034</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.040644777755601</v>
@@ -39649,7 +39541,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.497317958279041</v>
+        <v>1.507025353179782</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.109511339819121</v>
@@ -39738,7 +39630,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.500933992703322</v>
+        <v>1.512920432411794</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.103757974814982</v>
@@ -39827,7 +39719,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.502293261481062</v>
+        <v>1.513496054693371</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.11909935664573</v>
@@ -39916,7 +39808,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.494865606258947</v>
+        <v>1.503882994311932</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.094331505748285</v>
@@ -40005,7 +39897,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.532655480516554</v>
+        <v>1.533255922443053</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.957777133574397</v>
@@ -40094,7 +39986,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.541770731914238</v>
+        <v>1.539768233126861</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.049881726999498</v>
@@ -40183,7 +40075,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.54609672396707</v>
+        <v>1.539166201964641</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.091229648447493</v>
@@ -40272,7 +40164,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.545619381093706</v>
+        <v>1.533541805528753</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.098756315961493</v>
@@ -40361,7 +40253,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.536390909666867</v>
+        <v>1.522246385970079</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.093185613661433</v>
